--- a/analysis/fluorimeter/offsets/expandedData.xlsx
+++ b/analysis/fluorimeter/offsets/expandedData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshWhitehead\work\analysis\fluorimeter\offsets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshWhitehea_5801ztl\work\analysis\fluorimeter\offsets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C89FDEB-2D64-4DCA-BFFA-F0809E8FA645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A679BC68-94B8-4F34-A776-E273CFC1CF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="9" xr2:uid="{80670910-439C-4720-AC0E-E4204F230AB8}"/>
+    <workbookView xWindow="15930" yWindow="0" windowWidth="12870" windowHeight="8760" xr2:uid="{80670910-439C-4720-AC0E-E4204F230AB8}"/>
   </bookViews>
   <sheets>
     <sheet name="619" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="142">
   <si>
     <t>consumable</t>
   </si>
@@ -462,6 +462,15 @@
   </si>
   <si>
     <t>31a2df</t>
+  </si>
+  <si>
+    <t>255683</t>
+  </si>
+  <si>
+    <t>1*</t>
+  </si>
+  <si>
+    <t>0*</t>
   </si>
 </sst>
 </file>
@@ -840,13 +849,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446DEAA5-3D17-4AD6-A750-A45CCFABA2CB}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -857,116 +866,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>56</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>81</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>91</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>100</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>120</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>130</v>
       </c>
       <c r="B15">
         <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -979,13 +1030,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3A35AC-B18E-41A8-A190-AE03CE10DE33}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -996,116 +1047,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>80</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>90</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>99</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>129</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>138</v>
       </c>
       <c r="B15">
         <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1118,12 +1211,12 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1134,115 +1227,157 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>82</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>92</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>121</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>131</v>
       </c>
       <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>1</v>
       </c>
     </row>
@@ -1256,12 +1391,12 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1272,115 +1407,157 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>83</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>93</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>101</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>122</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>132</v>
       </c>
       <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>1</v>
       </c>
     </row>
@@ -1394,12 +1571,12 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1410,116 +1587,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>850761</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>538789</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B15">
         <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1532,12 +1751,12 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1548,116 +1767,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>75</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>85</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>94</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>103</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>124</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>134</v>
       </c>
       <c r="B15">
         <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1670,12 +1931,12 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1686,116 +1947,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>76</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>86</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>95</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>104</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>125</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>255683</v>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="B15">
         <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1808,12 +2111,12 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1824,108 +2127,147 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>87</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>96</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>105</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>126</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>135</v>
       </c>
       <c r="B14">
         <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1938,12 +2280,12 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1954,115 +2296,157 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>78</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>88</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>127</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>136</v>
       </c>
       <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>1</v>
       </c>
     </row>
@@ -2076,12 +2460,12 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2092,116 +2476,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>69</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>79</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>89</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>98</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>106</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>128</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>137</v>
       </c>
       <c r="B15">
         <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/fluorimeter/offsets/expandedData.xlsx
+++ b/analysis/fluorimeter/offsets/expandedData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshWhitehea_5801ztl\work\analysis\fluorimeter\offsets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A679BC68-94B8-4F34-A776-E273CFC1CF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5953AF80-8978-4F68-93D9-7394B6FE5BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15930" yWindow="0" windowWidth="12870" windowHeight="8760" xr2:uid="{80670910-439C-4720-AC0E-E4204F230AB8}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="8" xr2:uid="{80670910-439C-4720-AC0E-E4204F230AB8}"/>
   </bookViews>
   <sheets>
     <sheet name="619" sheetId="1" r:id="rId1"/>
@@ -849,7 +849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446DEAA5-3D17-4AD6-A750-A45CCFABA2CB}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2111,7 +2111,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2459,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F4719B-3793-4BEB-9FDC-6D6F1D10EDAB}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/analysis/fluorimeter/offsets/expandedData.xlsx
+++ b/analysis/fluorimeter/offsets/expandedData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshWhitehea_5801ztl\work\analysis\fluorimeter\offsets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5953AF80-8978-4F68-93D9-7394B6FE5BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9140A919-EF79-4ABD-859C-62C3B3F06045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="8" xr2:uid="{80670910-439C-4720-AC0E-E4204F230AB8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{80670910-439C-4720-AC0E-E4204F230AB8}"/>
   </bookViews>
   <sheets>
     <sheet name="619" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="146">
   <si>
     <t>consumable</t>
   </si>
@@ -467,10 +467,22 @@
     <t>255683</t>
   </si>
   <si>
-    <t>1*</t>
-  </si>
-  <si>
-    <t>0*</t>
+    <t>offset type</t>
+  </si>
+  <si>
+    <t>general noise</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>drift</t>
+  </si>
+  <si>
+    <t>fuzzy</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -847,15 +859,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446DEAA5-3D17-4AD6-A750-A45CCFABA2CB}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="J1" sqref="J1:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -865,8 +882,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -876,8 +902,17 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -887,8 +922,17 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -898,8 +942,17 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -909,8 +962,17 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>123</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -920,8 +982,11 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -931,8 +996,11 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -942,8 +1010,11 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -953,8 +1024,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -964,8 +1038,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -975,8 +1052,11 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -986,8 +1066,11 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -997,8 +1080,11 @@
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -1008,8 +1094,11 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>130</v>
       </c>
@@ -1017,6 +1106,9 @@
         <v>1</v>
       </c>
       <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>0</v>
       </c>
     </row>
@@ -1028,15 +1120,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3A35AC-B18E-41A8-A190-AE03CE10DE33}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1046,8 +1138,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1152,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1068,8 +1166,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1079,8 +1180,11 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1090,8 +1194,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1101,8 +1208,11 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -1112,8 +1222,11 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -1123,8 +1236,11 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -1134,8 +1250,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -1145,8 +1264,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -1156,8 +1278,11 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -1167,8 +1292,11 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>117</v>
       </c>
@@ -1178,8 +1306,11 @@
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -1189,8 +1320,11 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -1198,6 +1332,9 @@
         <v>0</v>
       </c>
       <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>1</v>
       </c>
     </row>
@@ -1208,15 +1345,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0BE761-242B-41D1-BB6F-EFF51F250204}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1226,8 +1363,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1237,8 +1383,17 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>119</v>
       </c>
@@ -1248,8 +1403,17 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1259,8 +1423,17 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1270,8 +1443,17 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1281,8 +1463,11 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1292,8 +1477,11 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -1303,8 +1491,11 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -1314,8 +1505,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -1325,8 +1519,11 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -1336,8 +1533,11 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -1347,8 +1547,11 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>107</v>
       </c>
@@ -1358,8 +1561,11 @@
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -1369,8 +1575,11 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -1379,6 +1588,9 @@
       </c>
       <c r="C15">
         <v>1</v>
+      </c>
+      <c r="D15">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1388,15 +1600,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A18E045-094E-45BA-809F-38F7999B39DB}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1406,8 +1618,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1417,8 +1638,17 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1428,8 +1658,17 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1439,30 +1678,51 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>108</v>
       </c>
@@ -1472,8 +1732,11 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1483,30 +1746,39 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -1516,8 +1788,11 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -1527,8 +1802,11 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -1538,8 +1816,11 @@
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -1549,8 +1830,11 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>132</v>
       </c>
@@ -1559,6 +1843,9 @@
       </c>
       <c r="C15">
         <v>1</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1568,15 +1855,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6E7E22-68C1-4D0F-99EE-469C30819AE7}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1586,8 +1873,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1597,8 +1887,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1608,8 +1901,11 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1915,11 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>109</v>
       </c>
@@ -1630,8 +1929,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>850761</v>
       </c>
@@ -1641,8 +1943,11 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
@@ -1652,19 +1957,25 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>65</v>
       </c>
@@ -1674,8 +1985,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>74</v>
       </c>
@@ -1685,8 +1999,11 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>84</v>
       </c>
@@ -1696,8 +2013,11 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>538789</v>
       </c>
@@ -1707,8 +2027,11 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>102</v>
       </c>
@@ -1718,8 +2041,11 @@
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>123</v>
       </c>
@@ -1729,8 +2055,11 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>133</v>
       </c>
@@ -1739,6 +2068,9 @@
       </c>
       <c r="C15">
         <v>1</v>
+      </c>
+      <c r="D15">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1748,15 +2080,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238535FC-9361-4D4A-A905-9CBE95A33BD1}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1766,8 +2098,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1777,8 +2112,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1788,8 +2126,11 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1799,8 +2140,11 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1810,8 +2154,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -1821,19 +2168,25 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>110</v>
       </c>
@@ -1843,8 +2196,11 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1854,8 +2210,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -1865,8 +2224,11 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -1876,8 +2238,11 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -1887,8 +2252,11 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -1898,8 +2266,11 @@
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -1909,8 +2280,11 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -1918,6 +2292,9 @@
         <v>1</v>
       </c>
       <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>0</v>
       </c>
     </row>
@@ -1928,15 +2305,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1744FF52-DEED-437C-98FD-A6207CC1E0FB}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1946,8 +2323,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1957,8 +2337,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1968,8 +2351,11 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1979,8 +2365,11 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1990,8 +2379,11 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -2001,8 +2393,11 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -2012,8 +2407,11 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -2023,8 +2421,11 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -2034,8 +2435,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -2045,8 +2449,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -2056,8 +2463,11 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -2067,8 +2477,11 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -2078,19 +2491,25 @@
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>125</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>139</v>
       </c>
@@ -2098,6 +2517,9 @@
         <v>1</v>
       </c>
       <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>0</v>
       </c>
     </row>
@@ -2108,15 +2530,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77FC2F0-551C-4794-B81B-7E878EDBF74D}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2126,8 +2548,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2137,8 +2562,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -2148,8 +2576,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -2159,8 +2590,11 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -2170,8 +2604,11 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2181,8 +2618,11 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>111</v>
       </c>
@@ -2192,8 +2632,11 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
@@ -2203,8 +2646,11 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -2214,8 +2660,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -2225,8 +2674,11 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -2236,8 +2688,11 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -2247,8 +2702,11 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -2258,8 +2716,11 @@
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -2268,6 +2729,9 @@
       </c>
       <c r="C14">
         <v>1</v>
+      </c>
+      <c r="D14">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2277,15 +2741,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE32607-DA52-4593-8338-3E2E41773A9A}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2295,19 +2759,25 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2317,8 +2787,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2328,8 +2801,11 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2339,8 +2815,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -2350,8 +2829,11 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -2361,8 +2843,11 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>112</v>
       </c>
@@ -2372,8 +2857,11 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>113</v>
       </c>
@@ -2383,8 +2871,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -2394,8 +2885,11 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -2405,8 +2899,11 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -2416,8 +2913,11 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>114</v>
       </c>
@@ -2427,8 +2927,11 @@
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -2438,8 +2941,11 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -2448,6 +2954,9 @@
       </c>
       <c r="C15">
         <v>1</v>
+      </c>
+      <c r="D15">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2457,15 +2966,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F4719B-3793-4BEB-9FDC-6D6F1D10EDAB}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2475,8 +2984,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2486,8 +2998,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2497,8 +3012,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2508,8 +3026,11 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -2519,8 +3040,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>116</v>
       </c>
@@ -2530,8 +3054,11 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -2541,8 +3068,11 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>115</v>
       </c>
@@ -2552,8 +3082,11 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -2563,8 +3096,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -2574,8 +3110,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -2585,19 +3124,25 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>98</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -2607,8 +3152,11 @@
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -2618,8 +3166,11 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -2627,6 +3178,9 @@
         <v>1</v>
       </c>
       <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>0</v>
       </c>
     </row>
